--- a/src/main/resources/file/temp/巡查记录.xlsx
+++ b/src/main/resources/file/temp/巡查记录.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>加气站id</t>
+    <t>加气站名称</t>
   </si>
   <si>
     <t>填报时间</t>
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:AA72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
